--- a/7 Final Item Sets FEB 2019/SPM-2_Teen_Items_FINAL.xlsx
+++ b/7 Final Item Sets FEB 2019/SPM-2_Teen_Items_FINAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Research &amp; Development\Projects\SPM-2\FORMS\7 Final Item Sets FEB 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dherzberg/Desktop/SPM2-R/7 Final Item Sets FEB 2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33D7966-2539-4016-9886-A4ECD4B97ED6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEFCE7A-1127-794C-BCA8-DB2FE196D684}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="675" windowWidth="18840" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Self-Report" sheetId="5" r:id="rId1"/>
@@ -1371,9 +1371,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1648,8 +1655,8 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1659,28 +1666,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1692,214 +1699,214 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2220,27 +2227,27 @@
   </sheetPr>
   <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G91" sqref="G91"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="30" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="35" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="41" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="72.140625" style="62" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="41" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="72.1640625" style="62" customWidth="1"/>
     <col min="8" max="8" width="25" style="24" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="22.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="16.5" thickBot="1">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="18" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2265,7 +2272,7 @@
       <c r="H1" s="23"/>
       <c r="J1" s="26"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75">
+    <row r="2" spans="1:10" ht="17">
       <c r="A2" s="110">
         <v>1</v>
       </c>
@@ -2288,7 +2295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
+    <row r="3" spans="1:10" ht="17">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -2311,7 +2318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75">
+    <row r="4" spans="1:10" ht="17">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -2334,7 +2341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75">
+    <row r="5" spans="1:10" ht="17">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -2357,7 +2364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="31.5">
+    <row r="6" spans="1:10" ht="17">
       <c r="A6" s="18">
         <v>6</v>
       </c>
@@ -2378,7 +2385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75">
+    <row r="7" spans="1:10" ht="17">
       <c r="A7" s="18">
         <v>7</v>
       </c>
@@ -2399,7 +2406,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75">
+    <row r="8" spans="1:10" ht="17">
       <c r="A8" s="18">
         <v>8</v>
       </c>
@@ -2422,7 +2429,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75">
+    <row r="9" spans="1:10" ht="17">
       <c r="A9" s="18">
         <v>9</v>
       </c>
@@ -2443,7 +2450,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="31.5">
+    <row r="10" spans="1:10" ht="34">
       <c r="A10" s="18">
         <v>11</v>
       </c>
@@ -2464,7 +2471,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickBot="1">
+    <row r="11" spans="1:10" ht="18" thickBot="1">
       <c r="A11" s="111">
         <v>12</v>
       </c>
@@ -2485,7 +2492,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="31.5">
+    <row r="12" spans="1:10" ht="17">
       <c r="A12" s="110">
         <v>14</v>
       </c>
@@ -2506,7 +2513,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75">
+    <row r="13" spans="1:10" ht="17">
       <c r="A13" s="18">
         <v>15</v>
       </c>
@@ -2527,7 +2534,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75">
+    <row r="14" spans="1:10" ht="17">
       <c r="A14" s="18">
         <v>16</v>
       </c>
@@ -2548,7 +2555,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75">
+    <row r="15" spans="1:10" ht="17">
       <c r="A15" s="18">
         <v>17</v>
       </c>
@@ -2569,7 +2576,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="31.5">
+    <row r="16" spans="1:10" ht="34">
       <c r="A16" s="18">
         <v>18</v>
       </c>
@@ -2590,7 +2597,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75">
+    <row r="17" spans="1:10" ht="17">
       <c r="A17" s="18">
         <v>19</v>
       </c>
@@ -2611,7 +2618,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="31.5">
+    <row r="18" spans="1:10" ht="17">
       <c r="A18" s="18">
         <v>20</v>
       </c>
@@ -2632,7 +2639,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="47.25">
+    <row r="19" spans="1:10" ht="34">
       <c r="A19" s="18">
         <v>23</v>
       </c>
@@ -2653,7 +2660,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75">
+    <row r="20" spans="1:10" ht="17">
       <c r="A20" s="18">
         <v>24</v>
       </c>
@@ -2674,7 +2681,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="32.25" thickBot="1">
+    <row r="21" spans="1:10" ht="18" thickBot="1">
       <c r="A21" s="111">
         <v>25</v>
       </c>
@@ -2695,7 +2702,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="31.5">
+    <row r="22" spans="1:10" ht="34">
       <c r="A22" s="110">
         <v>27</v>
       </c>
@@ -2716,7 +2723,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="31.5">
+    <row r="23" spans="1:10" ht="34">
       <c r="A23" s="18">
         <v>29</v>
       </c>
@@ -2737,7 +2744,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75">
+    <row r="24" spans="1:10" ht="17">
       <c r="A24" s="18">
         <v>30</v>
       </c>
@@ -2758,7 +2765,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75">
+    <row r="25" spans="1:10" ht="17">
       <c r="A25" s="18">
         <v>31</v>
       </c>
@@ -2779,7 +2786,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="31.5">
+    <row r="26" spans="1:10" ht="34">
       <c r="A26" s="18">
         <v>32</v>
       </c>
@@ -2800,7 +2807,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75">
+    <row r="27" spans="1:10" ht="17">
       <c r="A27" s="18">
         <v>34</v>
       </c>
@@ -2821,7 +2828,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75">
+    <row r="28" spans="1:10" ht="17">
       <c r="A28" s="18">
         <v>36</v>
       </c>
@@ -2842,7 +2849,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75">
+    <row r="29" spans="1:10" ht="17">
       <c r="A29" s="18">
         <v>37</v>
       </c>
@@ -2863,7 +2870,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="31.5">
+    <row r="30" spans="1:10" ht="34">
       <c r="A30" s="18">
         <v>38</v>
       </c>
@@ -2884,7 +2891,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="16.5" thickBot="1">
+    <row r="31" spans="1:10" ht="18" thickBot="1">
       <c r="A31" s="111">
         <v>39</v>
       </c>
@@ -2905,7 +2912,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75">
+    <row r="32" spans="1:10" ht="17">
       <c r="A32" s="110">
         <v>40</v>
       </c>
@@ -2929,7 +2936,7 @@
       <c r="I32" s="27"/>
       <c r="J32" s="28"/>
     </row>
-    <row r="33" spans="1:10" ht="31.5">
+    <row r="33" spans="1:10" ht="17">
       <c r="A33" s="18">
         <v>41</v>
       </c>
@@ -2950,7 +2957,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75">
+    <row r="34" spans="1:10" ht="17">
       <c r="A34" s="18">
         <v>43</v>
       </c>
@@ -2974,7 +2981,7 @@
       <c r="I34" s="27"/>
       <c r="J34" s="28"/>
     </row>
-    <row r="35" spans="1:10" ht="31.5">
+    <row r="35" spans="1:10" ht="34">
       <c r="A35" s="18">
         <v>45</v>
       </c>
@@ -2995,7 +3002,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75">
+    <row r="36" spans="1:10" ht="17">
       <c r="A36" s="18">
         <v>46</v>
       </c>
@@ -3016,7 +3023,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75">
+    <row r="37" spans="1:10" ht="17">
       <c r="A37" s="18">
         <v>47</v>
       </c>
@@ -3037,7 +3044,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75">
+    <row r="38" spans="1:10" ht="17">
       <c r="A38" s="18">
         <v>48</v>
       </c>
@@ -3058,7 +3065,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="31.5">
+    <row r="39" spans="1:10" ht="17">
       <c r="A39" s="18">
         <v>49</v>
       </c>
@@ -3079,7 +3086,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75">
+    <row r="40" spans="1:10" ht="17">
       <c r="A40" s="18">
         <v>50</v>
       </c>
@@ -3100,7 +3107,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="32.25" thickBot="1">
+    <row r="41" spans="1:10" ht="18" thickBot="1">
       <c r="A41" s="111">
         <v>51</v>
       </c>
@@ -3121,7 +3128,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75">
+    <row r="42" spans="1:10" ht="17">
       <c r="A42" s="110">
         <v>53</v>
       </c>
@@ -3144,7 +3151,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75">
+    <row r="43" spans="1:10" ht="17">
       <c r="A43" s="18">
         <v>54</v>
       </c>
@@ -3167,7 +3174,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75">
+    <row r="44" spans="1:10" ht="17">
       <c r="A44" s="18">
         <v>57</v>
       </c>
@@ -3190,7 +3197,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75">
+    <row r="45" spans="1:10" ht="17">
       <c r="A45" s="18">
         <v>59</v>
       </c>
@@ -3213,7 +3220,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="31.5">
+    <row r="46" spans="1:10" ht="34">
       <c r="A46" s="18">
         <v>60</v>
       </c>
@@ -3236,7 +3243,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75">
+    <row r="47" spans="1:10" ht="17">
       <c r="A47" s="18">
         <v>61</v>
       </c>
@@ -3259,7 +3266,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75">
+    <row r="48" spans="1:10" ht="17">
       <c r="A48" s="18">
         <v>62</v>
       </c>
@@ -3282,7 +3289,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75">
+    <row r="49" spans="1:8" ht="17">
       <c r="A49" s="18">
         <v>63</v>
       </c>
@@ -3305,7 +3312,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75">
+    <row r="50" spans="1:8" ht="17">
       <c r="A50" s="18">
         <v>64</v>
       </c>
@@ -3328,7 +3335,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="16.5" thickBot="1">
+    <row r="51" spans="1:8" ht="18" thickBot="1">
       <c r="A51" s="111">
         <v>65</v>
       </c>
@@ -3351,7 +3358,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="31.5">
+    <row r="52" spans="1:8" ht="34">
       <c r="A52" s="110">
         <v>66</v>
       </c>
@@ -3372,7 +3379,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75">
+    <row r="53" spans="1:8" ht="17">
       <c r="A53" s="18">
         <v>67</v>
       </c>
@@ -3393,7 +3400,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75">
+    <row r="54" spans="1:8" ht="17">
       <c r="A54" s="18">
         <v>68</v>
       </c>
@@ -3414,7 +3421,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75">
+    <row r="55" spans="1:8" ht="17">
       <c r="A55" s="18">
         <v>69</v>
       </c>
@@ -3435,7 +3442,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75">
+    <row r="56" spans="1:8" ht="17">
       <c r="A56" s="18">
         <v>70</v>
       </c>
@@ -3456,7 +3463,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75">
+    <row r="57" spans="1:8" ht="17">
       <c r="A57" s="18">
         <v>71</v>
       </c>
@@ -3477,7 +3484,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75">
+    <row r="58" spans="1:8" ht="17">
       <c r="A58" s="18">
         <v>72</v>
       </c>
@@ -3498,7 +3505,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75">
+    <row r="59" spans="1:8" ht="17">
       <c r="A59" s="18">
         <v>73</v>
       </c>
@@ -3519,7 +3526,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75">
+    <row r="60" spans="1:8" ht="17">
       <c r="A60" s="18">
         <v>75</v>
       </c>
@@ -3541,7 +3548,7 @@
       </c>
       <c r="H60" s="48"/>
     </row>
-    <row r="61" spans="1:8" ht="16.5" thickBot="1">
+    <row r="61" spans="1:8" ht="18" thickBot="1">
       <c r="A61" s="111">
         <v>77</v>
       </c>
@@ -3562,7 +3569,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="31.5">
+    <row r="62" spans="1:8" ht="34">
       <c r="A62" s="110">
         <v>79</v>
       </c>
@@ -3584,7 +3591,7 @@
       </c>
       <c r="H62" s="48"/>
     </row>
-    <row r="63" spans="1:8" ht="31.5">
+    <row r="63" spans="1:8" ht="17">
       <c r="A63" s="18">
         <v>81</v>
       </c>
@@ -3605,7 +3612,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75">
+    <row r="64" spans="1:8" ht="17">
       <c r="A64" s="18">
         <v>82</v>
       </c>
@@ -3626,7 +3633,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15.75">
+    <row r="65" spans="1:7" ht="17">
       <c r="A65" s="18">
         <v>83</v>
       </c>
@@ -3647,7 +3654,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15.75">
+    <row r="66" spans="1:7" ht="17">
       <c r="A66" s="18">
         <v>84</v>
       </c>
@@ -3668,7 +3675,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="31.5">
+    <row r="67" spans="1:7" ht="34">
       <c r="A67" s="18">
         <v>86</v>
       </c>
@@ -3689,7 +3696,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.75">
+    <row r="68" spans="1:7" ht="17">
       <c r="A68" s="18">
         <v>87</v>
       </c>
@@ -3710,7 +3717,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="31.5">
+    <row r="69" spans="1:7" ht="34">
       <c r="A69" s="18">
         <v>90</v>
       </c>
@@ -3731,7 +3738,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="31.5">
+    <row r="70" spans="1:7" ht="34">
       <c r="A70" s="18">
         <v>91</v>
       </c>
@@ -3752,7 +3759,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="16.5" thickBot="1">
+    <row r="71" spans="1:7" ht="18" thickBot="1">
       <c r="A71" s="111">
         <v>92</v>
       </c>
@@ -3773,7 +3780,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15.75">
+    <row r="72" spans="1:7" ht="17">
       <c r="A72" s="110">
         <v>93</v>
       </c>
@@ -3794,7 +3801,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="31.5">
+    <row r="73" spans="1:7" ht="34">
       <c r="A73" s="18">
         <v>94</v>
       </c>
@@ -3815,7 +3822,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="31.5">
+    <row r="74" spans="1:7" ht="34">
       <c r="A74" s="18">
         <v>95</v>
       </c>
@@ -3836,7 +3843,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15.75">
+    <row r="75" spans="1:7" ht="17">
       <c r="A75" s="18">
         <v>96</v>
       </c>
@@ -3857,7 +3864,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="31.5">
+    <row r="76" spans="1:7" ht="34">
       <c r="A76" s="18">
         <v>97</v>
       </c>
@@ -3878,7 +3885,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="31.5">
+    <row r="77" spans="1:7" ht="34">
       <c r="A77" s="18">
         <v>99</v>
       </c>
@@ -3899,7 +3906,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.75">
+    <row r="78" spans="1:7" ht="17">
       <c r="A78" s="18">
         <v>101</v>
       </c>
@@ -3920,7 +3927,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="31.5">
+    <row r="79" spans="1:7" ht="34">
       <c r="A79" s="18">
         <v>102</v>
       </c>
@@ -3941,7 +3948,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15.75">
+    <row r="80" spans="1:7" ht="17">
       <c r="A80" s="18">
         <v>103</v>
       </c>
@@ -3962,7 +3969,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="16.5" thickBot="1">
+    <row r="81" spans="1:7" ht="18" thickBot="1">
       <c r="A81" s="111">
         <v>104</v>
       </c>
@@ -3989,7 +3996,7 @@
       <c r="G107" s="62"/>
       <c r="H107" s="25"/>
     </row>
-    <row r="108" spans="1:8" s="54" customFormat="1" ht="15.75">
+    <row r="108" spans="1:8" s="54" customFormat="1" ht="16">
       <c r="A108" s="50"/>
       <c r="B108" s="51"/>
       <c r="C108" s="51"/>
@@ -4004,7 +4011,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G106">
     <sortCondition sortBy="cellColor" ref="G2:G106" dxfId="2"/>
   </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="69" fitToHeight="4" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -4017,23 +4024,23 @@
   </sheetPr>
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L68" sqref="L68"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="5.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="8" customWidth="1"/>
-    <col min="4" max="5" width="5.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="71.7109375" style="22" customWidth="1"/>
-    <col min="8" max="8" width="29.85546875" style="22" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="7"/>
+    <col min="1" max="2" width="5.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" style="8" customWidth="1"/>
+    <col min="4" max="5" width="5.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="71.6640625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="29.83203125" style="22" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1">
+    <row r="1" spans="1:7" ht="18" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4056,7 +4063,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="17">
       <c r="A2" s="110">
         <v>1</v>
       </c>
@@ -4079,7 +4086,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="17">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -4102,7 +4109,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="17">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -4125,7 +4132,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="17">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -4145,7 +4152,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="17">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -4165,7 +4172,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="31.5">
+    <row r="7" spans="1:7" ht="34">
       <c r="A7" s="18">
         <v>7</v>
       </c>
@@ -4188,7 +4195,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="17">
       <c r="A8" s="18">
         <v>8</v>
       </c>
@@ -4211,7 +4218,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="31.5">
+    <row r="9" spans="1:7" ht="34">
       <c r="A9" s="18">
         <v>10</v>
       </c>
@@ -4219,7 +4226,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="92" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E9" s="15">
         <v>10</v>
@@ -4231,7 +4238,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="17">
       <c r="A10" s="18">
         <v>11</v>
       </c>
@@ -4251,15 +4258,15 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" thickBot="1">
+    <row r="11" spans="1:7" ht="18" thickBot="1">
       <c r="A11" s="111">
         <v>12</v>
       </c>
       <c r="B11" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="107" t="s">
-        <v>7</v>
+      <c r="C11" s="92" t="s">
+        <v>13</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="17">
@@ -4272,7 +4279,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="17">
       <c r="A12" s="110">
         <v>14</v>
       </c>
@@ -4293,7 +4300,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="17">
       <c r="A13" s="18">
         <v>15</v>
       </c>
@@ -4313,7 +4320,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="31.5">
+    <row r="14" spans="1:7" ht="34">
       <c r="A14" s="18">
         <v>16</v>
       </c>
@@ -4333,7 +4340,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="17">
       <c r="A15" s="18">
         <v>17</v>
       </c>
@@ -4353,7 +4360,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="17">
       <c r="A16" s="18">
         <v>19</v>
       </c>
@@ -4373,7 +4380,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="17">
       <c r="A17" s="18">
         <v>20</v>
       </c>
@@ -4393,7 +4400,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="17">
       <c r="A18" s="18">
         <v>21</v>
       </c>
@@ -4413,7 +4420,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="17">
       <c r="A19" s="18">
         <v>22</v>
       </c>
@@ -4433,7 +4440,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="31.5">
+    <row r="20" spans="1:7" ht="17">
       <c r="A20" s="18">
         <v>23</v>
       </c>
@@ -4453,7 +4460,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="32.25" thickBot="1">
+    <row r="21" spans="1:7" ht="35" thickBot="1">
       <c r="A21" s="111">
         <v>26</v>
       </c>
@@ -4474,7 +4481,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="31.5">
+    <row r="22" spans="1:7" ht="34">
       <c r="A22" s="110">
         <v>27</v>
       </c>
@@ -4495,7 +4502,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="17">
       <c r="A23" s="18">
         <v>28</v>
       </c>
@@ -4515,7 +4522,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="17">
       <c r="A24" s="18">
         <v>29</v>
       </c>
@@ -4535,7 +4542,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="31.5">
+    <row r="25" spans="1:7" ht="34">
       <c r="A25" s="18">
         <v>30</v>
       </c>
@@ -4555,7 +4562,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="17">
       <c r="A26" s="18">
         <v>33</v>
       </c>
@@ -4575,7 +4582,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="31.5">
+    <row r="27" spans="1:7" ht="34">
       <c r="A27" s="18">
         <v>34</v>
       </c>
@@ -4595,7 +4602,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="17">
       <c r="A28" s="18">
         <v>35</v>
       </c>
@@ -4615,7 +4622,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="17">
       <c r="A29" s="18">
         <v>36</v>
       </c>
@@ -4635,7 +4642,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="17">
       <c r="A30" s="18">
         <v>38</v>
       </c>
@@ -4655,7 +4662,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16.5" thickBot="1">
+    <row r="31" spans="1:7" ht="18" thickBot="1">
       <c r="A31" s="111">
         <v>39</v>
       </c>
@@ -4676,7 +4683,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="17">
       <c r="A32" s="110">
         <v>41</v>
       </c>
@@ -4697,7 +4704,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" ht="17">
       <c r="A33" s="18">
         <v>42</v>
       </c>
@@ -4717,7 +4724,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" ht="17">
       <c r="A34" s="18">
         <v>43</v>
       </c>
@@ -4737,7 +4744,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" ht="17">
       <c r="A35" s="18">
         <v>44</v>
       </c>
@@ -4757,7 +4764,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" ht="17">
       <c r="A36" s="18">
         <v>45</v>
       </c>
@@ -4777,7 +4784,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" ht="17">
       <c r="A37" s="18">
         <v>47</v>
       </c>
@@ -4797,7 +4804,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" ht="17">
       <c r="A38" s="18">
         <v>48</v>
       </c>
@@ -4817,7 +4824,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" ht="17">
       <c r="A39" s="18">
         <v>49</v>
       </c>
@@ -4837,7 +4844,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" ht="17">
       <c r="A40" s="18">
         <v>50</v>
       </c>
@@ -4857,7 +4864,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16.5" thickBot="1">
+    <row r="41" spans="1:7" ht="18" thickBot="1">
       <c r="A41" s="111">
         <v>51</v>
       </c>
@@ -4878,7 +4885,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" ht="17">
       <c r="A42" s="110">
         <v>53</v>
       </c>
@@ -4901,7 +4908,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" ht="17">
       <c r="A43" s="18">
         <v>54</v>
       </c>
@@ -4924,7 +4931,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" ht="17">
       <c r="A44" s="18">
         <v>55</v>
       </c>
@@ -4947,7 +4954,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" ht="17">
       <c r="A45" s="18">
         <v>57</v>
       </c>
@@ -4970,7 +4977,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" ht="17">
       <c r="A46" s="18">
         <v>58</v>
       </c>
@@ -4993,7 +5000,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" ht="17">
       <c r="A47" s="18">
         <v>60</v>
       </c>
@@ -5016,7 +5023,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" ht="17">
       <c r="A48" s="18">
         <v>62</v>
       </c>
@@ -5039,7 +5046,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" ht="17">
       <c r="A49" s="18">
         <v>63</v>
       </c>
@@ -5062,7 +5069,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" ht="17">
       <c r="A50" s="18">
         <v>64</v>
       </c>
@@ -5085,7 +5092,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="32.25" thickBot="1">
+    <row r="51" spans="1:8" ht="35" thickBot="1">
       <c r="A51" s="111">
         <v>65</v>
       </c>
@@ -5108,7 +5115,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="31.5">
+    <row r="52" spans="1:8" ht="34">
       <c r="A52" s="110">
         <v>66</v>
       </c>
@@ -5129,7 +5136,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" ht="17">
       <c r="A53" s="18">
         <v>68</v>
       </c>
@@ -5149,7 +5156,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" ht="17">
       <c r="A54" s="18">
         <v>69</v>
       </c>
@@ -5169,7 +5176,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" ht="17">
       <c r="A55" s="18">
         <v>70</v>
       </c>
@@ -5189,7 +5196,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" ht="17">
       <c r="A56" s="18">
         <v>71</v>
       </c>
@@ -5209,7 +5216,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" ht="17">
       <c r="A57" s="18">
         <v>72</v>
       </c>
@@ -5229,7 +5236,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" ht="17">
       <c r="A58" s="18">
         <v>73</v>
       </c>
@@ -5250,7 +5257,7 @@
       </c>
       <c r="H58" s="49"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" ht="17">
       <c r="A59" s="18">
         <v>75</v>
       </c>
@@ -5270,7 +5277,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" ht="17">
       <c r="A60" s="18">
         <v>77</v>
       </c>
@@ -5290,7 +5297,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="16.5" thickBot="1">
+    <row r="61" spans="1:8" ht="18" thickBot="1">
       <c r="A61" s="111">
         <v>78</v>
       </c>
@@ -5311,7 +5318,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="31.5">
+    <row r="62" spans="1:8" ht="34">
       <c r="A62" s="110">
         <v>80</v>
       </c>
@@ -5332,7 +5339,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" ht="17">
       <c r="A63" s="18">
         <v>81</v>
       </c>
@@ -5352,7 +5359,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="31.5">
+    <row r="64" spans="1:8" ht="17">
       <c r="A64" s="18">
         <v>82</v>
       </c>
@@ -5372,7 +5379,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" ht="17">
       <c r="A65" s="18">
         <v>83</v>
       </c>
@@ -5393,7 +5400,7 @@
       </c>
       <c r="H65" s="49"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" ht="17">
       <c r="A66" s="18">
         <v>84</v>
       </c>
@@ -5413,7 +5420,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" ht="17">
       <c r="A67" s="18">
         <v>85</v>
       </c>
@@ -5433,7 +5440,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" ht="17">
       <c r="A68" s="18">
         <v>86</v>
       </c>
@@ -5453,7 +5460,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" ht="17">
       <c r="A69" s="18">
         <v>88</v>
       </c>
@@ -5473,7 +5480,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="31.5">
+    <row r="70" spans="1:8" ht="34">
       <c r="A70" s="18">
         <v>89</v>
       </c>
@@ -5493,7 +5500,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="16.5" thickBot="1">
+    <row r="71" spans="1:8" ht="18" thickBot="1">
       <c r="A71" s="111">
         <v>90</v>
       </c>
@@ -5514,7 +5521,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="31.5">
+    <row r="72" spans="1:8" ht="34">
       <c r="A72" s="110">
         <v>92</v>
       </c>
@@ -5535,7 +5542,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="31.5">
+    <row r="73" spans="1:8" ht="34">
       <c r="A73" s="18">
         <v>93</v>
       </c>
@@ -5555,7 +5562,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" ht="17">
       <c r="A74" s="18">
         <v>94</v>
       </c>
@@ -5575,7 +5582,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="31.5">
+    <row r="75" spans="1:8" ht="34">
       <c r="A75" s="18">
         <v>95</v>
       </c>
@@ -5595,7 +5602,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="31.5">
+    <row r="76" spans="1:8" ht="34">
       <c r="A76" s="18">
         <v>97</v>
       </c>
@@ -5615,7 +5622,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" ht="17">
       <c r="A77" s="18">
         <v>98</v>
       </c>
@@ -5635,7 +5642,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="31.5">
+    <row r="78" spans="1:8" ht="34">
       <c r="A78" s="18">
         <v>99</v>
       </c>
@@ -5655,7 +5662,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" ht="17">
       <c r="A79" s="18">
         <v>100</v>
       </c>
@@ -5675,7 +5682,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" ht="17">
       <c r="A80" s="18">
         <v>101</v>
       </c>
@@ -5695,7 +5702,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="32.25" thickBot="1">
+    <row r="81" spans="1:7" ht="35" thickBot="1">
       <c r="A81" s="111">
         <v>103</v>
       </c>
@@ -5720,7 +5727,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G105">
     <sortCondition sortBy="cellColor" ref="G2:G105" dxfId="1"/>
   </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="62" fitToHeight="4" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -5733,25 +5740,25 @@
   </sheetPr>
   <dimension ref="A1:H109"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="139" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="30" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="20" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="41" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="71.28515625" style="62" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="41" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="71.33203125" style="62" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="16.5" thickBot="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="18" thickBot="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5775,7 +5782,7 @@
       </c>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:8" ht="17">
       <c r="A2" s="98">
         <v>1</v>
       </c>
@@ -5798,7 +5805,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75">
+    <row r="3" spans="1:8" ht="17">
       <c r="A3" s="99">
         <v>2</v>
       </c>
@@ -5821,7 +5828,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75">
+    <row r="4" spans="1:8" ht="17">
       <c r="A4" s="99">
         <v>3</v>
       </c>
@@ -5844,7 +5851,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75">
+    <row r="5" spans="1:8" ht="17">
       <c r="A5" s="99">
         <v>7</v>
       </c>
@@ -5867,7 +5874,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75">
+    <row r="6" spans="1:8" ht="17">
       <c r="A6" s="99">
         <v>8</v>
       </c>
@@ -5890,7 +5897,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75">
+    <row r="7" spans="1:8" ht="17">
       <c r="A7" s="99">
         <v>9</v>
       </c>
@@ -5913,7 +5920,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="31.5">
+    <row r="8" spans="1:8" ht="34">
       <c r="A8" s="99">
         <v>10</v>
       </c>
@@ -5936,7 +5943,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75">
+    <row r="9" spans="1:8" ht="17">
       <c r="A9" s="99">
         <v>11</v>
       </c>
@@ -5959,7 +5966,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75">
+    <row r="10" spans="1:8" ht="17">
       <c r="A10" s="99">
         <v>12</v>
       </c>
@@ -5982,7 +5989,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1">
+    <row r="11" spans="1:8" ht="18" thickBot="1">
       <c r="A11" s="112">
         <v>13</v>
       </c>
@@ -6003,7 +6010,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75">
+    <row r="12" spans="1:8" ht="17">
       <c r="A12" s="98">
         <v>14</v>
       </c>
@@ -6024,7 +6031,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75">
+    <row r="13" spans="1:8" ht="17">
       <c r="A13" s="99">
         <v>15</v>
       </c>
@@ -6045,7 +6052,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75">
+    <row r="14" spans="1:8" ht="17">
       <c r="A14" s="99">
         <v>17</v>
       </c>
@@ -6066,7 +6073,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75">
+    <row r="15" spans="1:8" ht="17">
       <c r="A15" s="99">
         <v>18</v>
       </c>
@@ -6087,7 +6094,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75">
+    <row r="16" spans="1:8" ht="17">
       <c r="A16" s="99">
         <v>20</v>
       </c>
@@ -6108,7 +6115,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75">
+    <row r="17" spans="1:8" ht="17">
       <c r="A17" s="99">
         <v>22</v>
       </c>
@@ -6129,7 +6136,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="31.5">
+    <row r="18" spans="1:8" ht="34">
       <c r="A18" s="99">
         <v>23</v>
       </c>
@@ -6150,7 +6157,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="31.5">
+    <row r="19" spans="1:8" ht="34">
       <c r="A19" s="99">
         <v>24</v>
       </c>
@@ -6171,7 +6178,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.75">
+    <row r="20" spans="1:8" ht="17">
       <c r="A20" s="99">
         <v>25</v>
       </c>
@@ -6192,7 +6199,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16.5" thickBot="1">
+    <row r="21" spans="1:8" ht="18" thickBot="1">
       <c r="A21" s="112">
         <v>26</v>
       </c>
@@ -6213,7 +6220,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="31.5">
+    <row r="22" spans="1:8" ht="34">
       <c r="A22" s="98">
         <v>27</v>
       </c>
@@ -6234,7 +6241,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75">
+    <row r="23" spans="1:8" ht="17">
       <c r="A23" s="99">
         <v>28</v>
       </c>
@@ -6255,7 +6262,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="7" customFormat="1" ht="15.75">
+    <row r="24" spans="1:8" s="7" customFormat="1" ht="17">
       <c r="A24" s="99">
         <v>29</v>
       </c>
@@ -6277,7 +6284,7 @@
       </c>
       <c r="H24" s="29"/>
     </row>
-    <row r="25" spans="1:8" ht="31.5">
+    <row r="25" spans="1:8" ht="34">
       <c r="A25" s="99">
         <v>30</v>
       </c>
@@ -6299,7 +6306,7 @@
       </c>
       <c r="H25" s="30"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75">
+    <row r="26" spans="1:8" ht="17">
       <c r="A26" s="99">
         <v>33</v>
       </c>
@@ -6320,7 +6327,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75">
+    <row r="27" spans="1:8" ht="17">
       <c r="A27" s="99">
         <v>34</v>
       </c>
@@ -6341,7 +6348,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75">
+    <row r="28" spans="1:8" ht="17">
       <c r="A28" s="99">
         <v>35</v>
       </c>
@@ -6362,7 +6369,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75">
+    <row r="29" spans="1:8" ht="17">
       <c r="A29" s="99">
         <v>36</v>
       </c>
@@ -6383,7 +6390,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.75">
+    <row r="30" spans="1:8" ht="17">
       <c r="A30" s="99">
         <v>37</v>
       </c>
@@ -6404,7 +6411,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16.5" thickBot="1">
+    <row r="31" spans="1:8" ht="18" thickBot="1">
       <c r="A31" s="112">
         <v>38</v>
       </c>
@@ -6425,7 +6432,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.75">
+    <row r="32" spans="1:8" ht="17">
       <c r="A32" s="98">
         <v>41</v>
       </c>
@@ -6446,7 +6453,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75">
+    <row r="33" spans="1:7" ht="17">
       <c r="A33" s="99">
         <v>42</v>
       </c>
@@ -6467,7 +6474,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15.75">
+    <row r="34" spans="1:7" ht="17">
       <c r="A34" s="99">
         <v>44</v>
       </c>
@@ -6488,7 +6495,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15.75">
+    <row r="35" spans="1:7" ht="17">
       <c r="A35" s="99">
         <v>45</v>
       </c>
@@ -6509,7 +6516,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75">
+    <row r="36" spans="1:7" ht="17">
       <c r="A36" s="99">
         <v>46</v>
       </c>
@@ -6530,7 +6537,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15.75">
+    <row r="37" spans="1:7" ht="17">
       <c r="A37" s="99">
         <v>48</v>
       </c>
@@ -6551,7 +6558,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="31.5">
+    <row r="38" spans="1:7" ht="34">
       <c r="A38" s="99">
         <v>49</v>
       </c>
@@ -6572,7 +6579,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="15.75">
+    <row r="39" spans="1:7" ht="17">
       <c r="A39" s="99">
         <v>50</v>
       </c>
@@ -6593,7 +6600,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="15.75">
+    <row r="40" spans="1:7" ht="17">
       <c r="A40" s="99">
         <v>51</v>
       </c>
@@ -6614,7 +6621,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16.5" thickBot="1">
+    <row r="41" spans="1:7" ht="18" thickBot="1">
       <c r="A41" s="112">
         <v>52</v>
       </c>
@@ -6635,7 +6642,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75">
+    <row r="42" spans="1:7" ht="17">
       <c r="A42" s="98">
         <v>53</v>
       </c>
@@ -6658,7 +6665,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75">
+    <row r="43" spans="1:7" ht="17">
       <c r="A43" s="99">
         <v>54</v>
       </c>
@@ -6681,7 +6688,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="31.5">
+    <row r="44" spans="1:7" ht="17">
       <c r="A44" s="99">
         <v>55</v>
       </c>
@@ -6704,7 +6711,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15.75">
+    <row r="45" spans="1:7" ht="17">
       <c r="A45" s="99">
         <v>56</v>
       </c>
@@ -6727,7 +6734,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75">
+    <row r="46" spans="1:7" ht="17">
       <c r="A46" s="99">
         <v>57</v>
       </c>
@@ -6750,7 +6757,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15.75">
+    <row r="47" spans="1:7" ht="17">
       <c r="A47" s="99">
         <v>60</v>
       </c>
@@ -6773,7 +6780,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="31.5">
+    <row r="48" spans="1:7" ht="34">
       <c r="A48" s="99">
         <v>61</v>
       </c>
@@ -6796,7 +6803,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75">
+    <row r="49" spans="1:8" ht="17">
       <c r="A49" s="99">
         <v>63</v>
       </c>
@@ -6819,7 +6826,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75">
+    <row r="50" spans="1:8" ht="17">
       <c r="A50" s="99">
         <v>64</v>
       </c>
@@ -6842,7 +6849,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="16.5" thickBot="1">
+    <row r="51" spans="1:8" ht="18" thickBot="1">
       <c r="A51" s="112">
         <v>65</v>
       </c>
@@ -6865,7 +6872,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="31.5">
+    <row r="52" spans="1:8" ht="34">
       <c r="A52" s="98">
         <v>66</v>
       </c>
@@ -6886,7 +6893,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75">
+    <row r="53" spans="1:8" ht="17">
       <c r="A53" s="99">
         <v>67</v>
       </c>
@@ -6907,7 +6914,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75">
+    <row r="54" spans="1:8" ht="17">
       <c r="A54" s="99">
         <v>68</v>
       </c>
@@ -6928,7 +6935,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75">
+    <row r="55" spans="1:8" ht="17">
       <c r="A55" s="99">
         <v>69</v>
       </c>
@@ -6949,7 +6956,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75">
+    <row r="56" spans="1:8" ht="17">
       <c r="A56" s="99">
         <v>70</v>
       </c>
@@ -6970,7 +6977,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75">
+    <row r="57" spans="1:8" ht="17">
       <c r="A57" s="99">
         <v>71</v>
       </c>
@@ -6991,7 +6998,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75">
+    <row r="58" spans="1:8" ht="17">
       <c r="A58" s="99">
         <v>72</v>
       </c>
@@ -7012,7 +7019,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75">
+    <row r="59" spans="1:8" ht="17">
       <c r="A59" s="99">
         <v>73</v>
       </c>
@@ -7033,7 +7040,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="31.5">
+    <row r="60" spans="1:8" ht="34">
       <c r="A60" s="99">
         <v>75</v>
       </c>
@@ -7055,7 +7062,7 @@
       </c>
       <c r="H60" s="30"/>
     </row>
-    <row r="61" spans="1:8" ht="16.5" thickBot="1">
+    <row r="61" spans="1:8" ht="18" thickBot="1">
       <c r="A61" s="112">
         <v>78</v>
       </c>
@@ -7077,7 +7084,7 @@
       </c>
       <c r="H61" s="30"/>
     </row>
-    <row r="62" spans="1:8" ht="31.5">
+    <row r="62" spans="1:8" ht="17">
       <c r="A62" s="98">
         <v>79</v>
       </c>
@@ -7098,7 +7105,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="7" customFormat="1" ht="15.75">
+    <row r="63" spans="1:8" s="7" customFormat="1" ht="17">
       <c r="A63" s="99">
         <v>81</v>
       </c>
@@ -7120,7 +7127,7 @@
       </c>
       <c r="H63" s="29"/>
     </row>
-    <row r="64" spans="1:8" ht="15.75">
+    <row r="64" spans="1:8" ht="17">
       <c r="A64" s="99">
         <v>82</v>
       </c>
@@ -7141,7 +7148,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15.75">
+    <row r="65" spans="1:7" ht="17">
       <c r="A65" s="99">
         <v>83</v>
       </c>
@@ -7162,7 +7169,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="15.75">
+    <row r="66" spans="1:7" ht="17">
       <c r="A66" s="99">
         <v>85</v>
       </c>
@@ -7183,7 +7190,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15.75">
+    <row r="67" spans="1:7" ht="17">
       <c r="A67" s="99">
         <v>86</v>
       </c>
@@ -7204,7 +7211,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15.75">
+    <row r="68" spans="1:7" ht="17">
       <c r="A68" s="99">
         <v>87</v>
       </c>
@@ -7225,7 +7232,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15.75">
+    <row r="69" spans="1:7" ht="17">
       <c r="A69" s="99">
         <v>88</v>
       </c>
@@ -7246,7 +7253,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.75">
+    <row r="70" spans="1:7" ht="17">
       <c r="A70" s="99">
         <v>89</v>
       </c>
@@ -7267,7 +7274,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="16.5" thickBot="1">
+    <row r="71" spans="1:7" ht="18" thickBot="1">
       <c r="A71" s="112">
         <v>91</v>
       </c>
@@ -7288,7 +7295,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="31.5">
+    <row r="72" spans="1:7" ht="34">
       <c r="A72" s="98">
         <v>92</v>
       </c>
@@ -7309,7 +7316,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="15.75">
+    <row r="73" spans="1:7" ht="17">
       <c r="A73" s="99">
         <v>93</v>
       </c>
@@ -7330,7 +7337,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15.75">
+    <row r="74" spans="1:7" ht="17">
       <c r="A74" s="99">
         <v>94</v>
       </c>
@@ -7351,7 +7358,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15.75">
+    <row r="75" spans="1:7" ht="17">
       <c r="A75" s="99">
         <v>95</v>
       </c>
@@ -7372,7 +7379,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="31.5">
+    <row r="76" spans="1:7" ht="34">
       <c r="A76" s="99">
         <v>96</v>
       </c>
@@ -7393,7 +7400,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15.75">
+    <row r="77" spans="1:7" ht="17">
       <c r="A77" s="99">
         <v>97</v>
       </c>
@@ -7414,7 +7421,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="15.75">
+    <row r="78" spans="1:7" ht="17">
       <c r="A78" s="99">
         <v>101</v>
       </c>
@@ -7435,7 +7442,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="31.5">
+    <row r="79" spans="1:7" ht="17">
       <c r="A79" s="99">
         <v>102</v>
       </c>
@@ -7456,7 +7463,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="31.5">
+    <row r="80" spans="1:7" ht="34">
       <c r="A80" s="99">
         <v>104</v>
       </c>
@@ -7477,7 +7484,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="16.5" thickBot="1">
+    <row r="81" spans="1:7" ht="18" thickBot="1">
       <c r="A81" s="112">
         <v>105</v>
       </c>
@@ -7498,7 +7505,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="54" customFormat="1" ht="15.75">
+    <row r="108" spans="1:7" s="54" customFormat="1" ht="16">
       <c r="A108" s="50"/>
       <c r="B108" s="51"/>
       <c r="C108" s="51"/>
@@ -7514,7 +7521,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G106">
     <sortCondition sortBy="cellColor" ref="G2:G106" dxfId="0"/>
   </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="72" fitToHeight="4" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -7528,9 +7535,9 @@
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="7" width="64.85546875" customWidth="1"/>
+    <col min="7" max="7" width="64.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -7538,7 +7545,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="78" customFormat="1" ht="15.75">
+    <row r="3" spans="1:7" s="78" customFormat="1" ht="17">
       <c r="A3" s="72">
         <v>5</v>
       </c>
@@ -7559,7 +7566,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="78" customFormat="1" ht="15.75">
+    <row r="4" spans="1:7" s="78" customFormat="1" ht="17">
       <c r="A4" s="72">
         <v>10</v>
       </c>
@@ -7580,7 +7587,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="78" customFormat="1" ht="15.75">
+    <row r="5" spans="1:7" s="78" customFormat="1" ht="17">
       <c r="A5" s="72">
         <v>13</v>
       </c>
@@ -7603,7 +7610,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="78" customFormat="1" ht="31.5">
+    <row r="6" spans="1:7" s="78" customFormat="1" ht="34">
       <c r="A6" s="72">
         <v>21</v>
       </c>
@@ -7624,7 +7631,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="78" customFormat="1" ht="15.75">
+    <row r="7" spans="1:7" s="78" customFormat="1" ht="17">
       <c r="A7" s="72">
         <v>22</v>
       </c>
@@ -7645,7 +7652,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="78" customFormat="1" ht="31.5">
+    <row r="8" spans="1:7" s="78" customFormat="1" ht="34">
       <c r="A8" s="72">
         <v>26</v>
       </c>
@@ -7666,7 +7673,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="78" customFormat="1" ht="31.5">
+    <row r="9" spans="1:7" s="78" customFormat="1" ht="17">
       <c r="A9" s="72">
         <v>28</v>
       </c>
@@ -7687,7 +7694,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="78" customFormat="1" ht="31.5">
+    <row r="10" spans="1:7" s="78" customFormat="1" ht="34">
       <c r="A10" s="72">
         <v>33</v>
       </c>
@@ -7708,7 +7715,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="78" customFormat="1" ht="15.75">
+    <row r="11" spans="1:7" s="78" customFormat="1" ht="17">
       <c r="A11" s="72">
         <v>35</v>
       </c>
@@ -7729,7 +7736,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="78" customFormat="1" ht="15.75">
+    <row r="12" spans="1:7" s="78" customFormat="1" ht="17">
       <c r="A12" s="72">
         <v>42</v>
       </c>
@@ -7750,7 +7757,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="78" customFormat="1" ht="15.75">
+    <row r="13" spans="1:7" s="78" customFormat="1" ht="17">
       <c r="A13" s="72">
         <v>44</v>
       </c>
@@ -7771,7 +7778,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="78" customFormat="1" ht="32.25" thickBot="1">
+    <row r="14" spans="1:7" s="78" customFormat="1" ht="35" thickBot="1">
       <c r="A14" s="72">
         <v>52</v>
       </c>
@@ -7792,7 +7799,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="78" customFormat="1" ht="15.75">
+    <row r="15" spans="1:7" s="78" customFormat="1" ht="17">
       <c r="A15" s="72">
         <v>55</v>
       </c>
@@ -7815,7 +7822,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="78" customFormat="1" ht="15.75">
+    <row r="16" spans="1:7" s="78" customFormat="1" ht="17">
       <c r="A16" s="72">
         <v>56</v>
       </c>
@@ -7838,7 +7845,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="78" customFormat="1" ht="15.75">
+    <row r="17" spans="1:7" s="78" customFormat="1" ht="17">
       <c r="A17" s="72">
         <v>58</v>
       </c>
@@ -7861,7 +7868,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="78" customFormat="1" ht="31.5">
+    <row r="18" spans="1:7" s="78" customFormat="1" ht="34">
       <c r="A18" s="72">
         <v>74</v>
       </c>
@@ -7882,7 +7889,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="78" customFormat="1" ht="15.75">
+    <row r="19" spans="1:7" s="78" customFormat="1" ht="17">
       <c r="A19" s="72">
         <v>76</v>
       </c>
@@ -7903,7 +7910,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="78" customFormat="1" ht="15.75">
+    <row r="20" spans="1:7" s="78" customFormat="1" ht="17">
       <c r="A20" s="72">
         <v>78</v>
       </c>
@@ -7924,7 +7931,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="78" customFormat="1" ht="31.5">
+    <row r="21" spans="1:7" s="78" customFormat="1" ht="34">
       <c r="A21" s="72">
         <v>80</v>
       </c>
@@ -7945,7 +7952,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="78" customFormat="1" ht="15.75">
+    <row r="22" spans="1:7" s="78" customFormat="1" ht="17">
       <c r="A22" s="72">
         <v>85</v>
       </c>
@@ -7966,7 +7973,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="78" customFormat="1" ht="31.5">
+    <row r="23" spans="1:7" s="78" customFormat="1" ht="34">
       <c r="A23" s="72">
         <v>88</v>
       </c>
@@ -7987,7 +7994,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="78" customFormat="1" ht="15.75">
+    <row r="24" spans="1:7" s="78" customFormat="1" ht="17">
       <c r="A24" s="72">
         <v>89</v>
       </c>
@@ -8008,7 +8015,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="78" customFormat="1" ht="15.75">
+    <row r="25" spans="1:7" s="78" customFormat="1" ht="17">
       <c r="A25" s="72">
         <v>98</v>
       </c>
@@ -8029,7 +8036,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="78" customFormat="1" ht="15.75">
+    <row r="26" spans="1:7" s="78" customFormat="1" ht="17">
       <c r="A26" s="72">
         <v>100</v>
       </c>
@@ -8050,7 +8057,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="78" customFormat="1" ht="16.5" thickBot="1">
+    <row r="27" spans="1:7" s="78" customFormat="1" ht="18" thickBot="1">
       <c r="A27" s="88">
         <v>105</v>
       </c>
@@ -8076,7 +8083,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="7" customFormat="1" ht="15.75">
+    <row r="30" spans="1:7" s="7" customFormat="1" ht="17">
       <c r="A30" s="10">
         <v>6</v>
       </c>
@@ -8099,7 +8106,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="7" customFormat="1" ht="15.75">
+    <row r="31" spans="1:7" s="7" customFormat="1" ht="17">
       <c r="A31" s="10">
         <v>9</v>
       </c>
@@ -8120,7 +8127,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="7" customFormat="1" ht="31.5">
+    <row r="32" spans="1:7" s="7" customFormat="1" ht="17">
       <c r="A32" s="10">
         <v>13</v>
       </c>
@@ -8143,7 +8150,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="7" customFormat="1" ht="15.75">
+    <row r="33" spans="1:7" s="7" customFormat="1" ht="17">
       <c r="A33" s="10">
         <v>18</v>
       </c>
@@ -8164,7 +8171,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" ht="15.75">
+    <row r="34" spans="1:7" s="7" customFormat="1" ht="17">
       <c r="A34" s="10">
         <v>24</v>
       </c>
@@ -8185,7 +8192,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="7" customFormat="1" ht="31.5">
+    <row r="35" spans="1:7" s="7" customFormat="1" ht="34">
       <c r="A35" s="10">
         <v>25</v>
       </c>
@@ -8206,7 +8213,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="7" customFormat="1" ht="31.5">
+    <row r="36" spans="1:7" s="7" customFormat="1" ht="17">
       <c r="A36" s="10">
         <v>31</v>
       </c>
@@ -8227,7 +8234,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="7" customFormat="1" ht="31.5">
+    <row r="37" spans="1:7" s="7" customFormat="1" ht="34">
       <c r="A37" s="10">
         <v>32</v>
       </c>
@@ -8248,7 +8255,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="7" customFormat="1" ht="15.75">
+    <row r="38" spans="1:7" s="7" customFormat="1" ht="17">
       <c r="A38" s="10">
         <v>37</v>
       </c>
@@ -8269,7 +8276,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="7" customFormat="1" ht="15.75">
+    <row r="39" spans="1:7" s="7" customFormat="1" ht="17">
       <c r="A39" s="10">
         <v>40</v>
       </c>
@@ -8290,7 +8297,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="7" customFormat="1" ht="16.5" thickBot="1">
+    <row r="40" spans="1:7" s="7" customFormat="1" ht="18" thickBot="1">
       <c r="A40" s="10">
         <v>46</v>
       </c>
@@ -8311,7 +8318,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="7" customFormat="1" ht="15.75">
+    <row r="41" spans="1:7" s="7" customFormat="1" ht="17">
       <c r="A41" s="10">
         <v>52</v>
       </c>
@@ -8332,7 +8339,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="7" customFormat="1" ht="15.75">
+    <row r="42" spans="1:7" s="7" customFormat="1" ht="17">
       <c r="A42" s="10">
         <v>56</v>
       </c>
@@ -8355,7 +8362,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="7" customFormat="1" ht="15.75">
+    <row r="43" spans="1:7" s="7" customFormat="1" ht="17">
       <c r="A43" s="10">
         <v>59</v>
       </c>
@@ -8378,7 +8385,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="7" customFormat="1" ht="15.75">
+    <row r="44" spans="1:7" s="7" customFormat="1" ht="17">
       <c r="A44" s="10">
         <v>61</v>
       </c>
@@ -8401,7 +8408,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="7" customFormat="1" ht="15.75">
+    <row r="45" spans="1:7" s="7" customFormat="1" ht="17">
       <c r="A45" s="10">
         <v>67</v>
       </c>
@@ -8422,7 +8429,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="7" customFormat="1" ht="15.75">
+    <row r="46" spans="1:7" s="7" customFormat="1" ht="17">
       <c r="A46" s="10">
         <v>74</v>
       </c>
@@ -8443,7 +8450,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="7" customFormat="1" ht="15.75">
+    <row r="47" spans="1:7" s="7" customFormat="1" ht="17">
       <c r="A47" s="10">
         <v>76</v>
       </c>
@@ -8464,7 +8471,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="7" customFormat="1" ht="15.75">
+    <row r="48" spans="1:7" s="7" customFormat="1" ht="17">
       <c r="A48" s="10">
         <v>79</v>
       </c>
@@ -8485,7 +8492,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="7" customFormat="1" ht="31.5">
+    <row r="49" spans="1:7" s="7" customFormat="1" ht="34">
       <c r="A49" s="10">
         <v>87</v>
       </c>
@@ -8506,7 +8513,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="7" customFormat="1" ht="15.75">
+    <row r="50" spans="1:7" s="7" customFormat="1" ht="17">
       <c r="A50" s="10">
         <v>91</v>
       </c>
@@ -8527,7 +8534,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="7" customFormat="1" ht="15.75">
+    <row r="51" spans="1:7" s="7" customFormat="1" ht="17">
       <c r="A51" s="10">
         <v>96</v>
       </c>
@@ -8548,7 +8555,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="7" customFormat="1" ht="15.75">
+    <row r="52" spans="1:7" s="7" customFormat="1" ht="17">
       <c r="A52" s="10">
         <v>102</v>
       </c>
@@ -8569,7 +8576,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="7" customFormat="1" ht="16.5" thickBot="1">
+    <row r="53" spans="1:7" s="7" customFormat="1" ht="18" thickBot="1">
       <c r="A53" s="11">
         <v>104</v>
       </c>
@@ -8590,7 +8597,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="7" customFormat="1" ht="15.75">
+    <row r="54" spans="1:7" s="7" customFormat="1" ht="16">
       <c r="C54" s="8"/>
       <c r="G54" s="22"/>
     </row>
@@ -8599,7 +8606,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="1" customFormat="1" ht="15.75">
+    <row r="56" spans="1:7" s="1" customFormat="1" ht="17">
       <c r="A56" s="4">
         <v>4</v>
       </c>
@@ -8620,7 +8627,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="1" customFormat="1" ht="31.5">
+    <row r="57" spans="1:7" s="1" customFormat="1" ht="17">
       <c r="A57" s="4">
         <v>5</v>
       </c>
@@ -8641,7 +8648,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="1" customFormat="1" ht="15.75">
+    <row r="58" spans="1:7" s="1" customFormat="1" ht="17">
       <c r="A58" s="4">
         <v>6</v>
       </c>
@@ -8662,7 +8669,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="1" customFormat="1" ht="31.5">
+    <row r="59" spans="1:7" s="1" customFormat="1" ht="34">
       <c r="A59" s="4">
         <v>16</v>
       </c>
@@ -8683,7 +8690,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="1" customFormat="1" ht="15.75">
+    <row r="60" spans="1:7" s="1" customFormat="1" ht="17">
       <c r="A60" s="4">
         <v>19</v>
       </c>
@@ -8704,7 +8711,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="1" customFormat="1" ht="47.25">
+    <row r="61" spans="1:7" s="1" customFormat="1" ht="51">
       <c r="A61" s="4">
         <v>21</v>
       </c>
@@ -8725,7 +8732,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="1" customFormat="1" ht="31.5">
+    <row r="62" spans="1:7" s="1" customFormat="1" ht="17">
       <c r="A62" s="4">
         <v>31</v>
       </c>
@@ -8746,7 +8753,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="1" customFormat="1" ht="15.75">
+    <row r="63" spans="1:7" s="1" customFormat="1" ht="17">
       <c r="A63" s="4">
         <v>32</v>
       </c>
@@ -8767,7 +8774,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="1" customFormat="1" ht="15.75">
+    <row r="64" spans="1:7" s="1" customFormat="1" ht="17">
       <c r="A64" s="4">
         <v>39</v>
       </c>
@@ -8788,7 +8795,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="1" customFormat="1" ht="15.75">
+    <row r="65" spans="1:7" s="1" customFormat="1" ht="17">
       <c r="A65" s="4">
         <v>40</v>
       </c>
@@ -8809,7 +8816,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="1" customFormat="1" ht="16.5" thickBot="1">
+    <row r="66" spans="1:7" s="1" customFormat="1" ht="18" thickBot="1">
       <c r="A66" s="4">
         <v>43</v>
       </c>
@@ -8830,7 +8837,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="1" customFormat="1" ht="15.75">
+    <row r="67" spans="1:7" s="1" customFormat="1" ht="17">
       <c r="A67" s="4">
         <v>47</v>
       </c>
@@ -8851,7 +8858,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="1" customFormat="1" ht="15.75">
+    <row r="68" spans="1:7" s="1" customFormat="1" ht="17">
       <c r="A68" s="4">
         <v>58</v>
       </c>
@@ -8874,7 +8881,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="1" customFormat="1" ht="15.75">
+    <row r="69" spans="1:7" s="1" customFormat="1" ht="17">
       <c r="A69" s="4">
         <v>59</v>
       </c>
@@ -8897,7 +8904,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="1" customFormat="1" ht="15.75">
+    <row r="70" spans="1:7" s="1" customFormat="1" ht="17">
       <c r="A70" s="4">
         <v>62</v>
       </c>
@@ -8920,7 +8927,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="1" customFormat="1" ht="15.75">
+    <row r="71" spans="1:7" s="1" customFormat="1" ht="17">
       <c r="A71" s="4">
         <v>74</v>
       </c>
@@ -8941,7 +8948,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="1" customFormat="1" ht="15.75">
+    <row r="72" spans="1:7" s="1" customFormat="1" ht="17">
       <c r="A72" s="4">
         <v>76</v>
       </c>
@@ -8962,7 +8969,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="1" customFormat="1" ht="15.75">
+    <row r="73" spans="1:7" s="1" customFormat="1" ht="17">
       <c r="A73" s="4">
         <v>77</v>
       </c>
@@ -8983,7 +8990,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="1" customFormat="1" ht="15.75">
+    <row r="74" spans="1:7" s="1" customFormat="1" ht="17">
       <c r="A74" s="4">
         <v>80</v>
       </c>
@@ -9004,7 +9011,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="1" customFormat="1" ht="15.75">
+    <row r="75" spans="1:7" s="1" customFormat="1" ht="17">
       <c r="A75" s="4">
         <v>84</v>
       </c>
@@ -9025,7 +9032,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="1" customFormat="1" ht="15.75">
+    <row r="76" spans="1:7" s="1" customFormat="1" ht="17">
       <c r="A76" s="4">
         <v>90</v>
       </c>
@@ -9046,7 +9053,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="1" customFormat="1" ht="31.5">
+    <row r="77" spans="1:7" s="1" customFormat="1" ht="34">
       <c r="A77" s="4">
         <v>98</v>
       </c>
@@ -9067,7 +9074,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="1" customFormat="1" ht="15.75">
+    <row r="78" spans="1:7" s="1" customFormat="1" ht="17">
       <c r="A78" s="4">
         <v>99</v>
       </c>
@@ -9088,7 +9095,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="1" customFormat="1" ht="31.5">
+    <row r="79" spans="1:7" s="1" customFormat="1" ht="17">
       <c r="A79" s="4">
         <v>100</v>
       </c>
@@ -9109,7 +9116,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="1" customFormat="1" ht="16.5" thickBot="1">
+    <row r="80" spans="1:7" s="1" customFormat="1" ht="18" thickBot="1">
       <c r="A80" s="5">
         <v>103</v>
       </c>
